--- a/project/phase2_results.xlsx
+++ b/project/phase2_results.xlsx
@@ -486,19 +486,19 @@
         <v>3.158293710110962</v>
       </c>
       <c r="D2" t="n">
-        <v>6.114621593431533</v>
+        <v>6.109631711691939</v>
       </c>
       <c r="E2" t="n">
-        <v>3.18393426821774</v>
+        <v>3.180114391530244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01892809485989844</v>
+        <v>0.01393821312030408</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02564055810677779</v>
+        <v>0.02182068141928184</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03187022113278102</v>
+        <v>0.02589239121033066</v>
       </c>
     </row>
     <row r="3">
@@ -512,19 +512,19 @@
         <v>1.132221084228233</v>
       </c>
       <c r="D3" t="n">
-        <v>1.327006606049438</v>
+        <v>1.32443318853413</v>
       </c>
       <c r="E3" t="n">
-        <v>1.125112170545788</v>
+        <v>1.128411107423878</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0007815854401191924</v>
+        <v>-0.003355002955427233</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.00710891368244515</v>
+        <v>-0.003809976804354465</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007151750103622342</v>
+        <v>0.005076609900380817</v>
       </c>
     </row>
     <row r="4">
@@ -538,19 +538,19 @@
         <v>8.302044618221775</v>
       </c>
       <c r="D4" t="n">
-        <v>7.504739969499223</v>
+        <v>7.502994929472846</v>
       </c>
       <c r="E4" t="n">
-        <v>8.299169124719748</v>
+        <v>8.301364246861349</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001421944102956374</v>
+        <v>-0.003166984129333805</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.002875493502026316</v>
+        <v>-0.0006803713604259798</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003207863449732232</v>
+        <v>0.003239242760822365</v>
       </c>
     </row>
   </sheetData>

--- a/project/phase2_results.xlsx
+++ b/project/phase2_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,19 +486,19 @@
         <v>3.158293710110962</v>
       </c>
       <c r="D2" t="n">
-        <v>6.109631711691939</v>
+        <v>6.097791848989952</v>
       </c>
       <c r="E2" t="n">
-        <v>3.180114391530244</v>
+        <v>3.158824152795895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01393821312030408</v>
+        <v>0.002098350418317629</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02182068141928184</v>
+        <v>0.0005304426849321864</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02589239121033066</v>
+        <v>0.002164357622956945</v>
       </c>
     </row>
     <row r="3">
@@ -512,19 +512,19 @@
         <v>1.132221084228233</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32443318853413</v>
+        <v>1.327958352405515</v>
       </c>
       <c r="E3" t="n">
-        <v>1.128411107423878</v>
+        <v>1.127961348663399</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.003355002955427233</v>
+        <v>0.0001701609159572293</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.003809976804354465</v>
+        <v>-0.0042597355648335</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005076609900380817</v>
+        <v>0.004263132864411661</v>
       </c>
     </row>
     <row r="4">
@@ -538,19 +538,45 @@
         <v>8.302044618221775</v>
       </c>
       <c r="D4" t="n">
-        <v>7.502994929472846</v>
+        <v>7.508419772969479</v>
       </c>
       <c r="E4" t="n">
-        <v>8.301364246861349</v>
+        <v>8.301797276737126</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003166984129333805</v>
+        <v>0.002257859367300163</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0006803713604259798</v>
+        <v>-0.0002473414846484445</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003239242760822365</v>
+        <v>0.002271366710272296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.853086206137439</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.835972487871987</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.848431766679135</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.832672373997851</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.004654439458303905</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.003300113874136201</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.005705660194340581</v>
       </c>
     </row>
   </sheetData>
